--- a/biology/Botanique/Gaston_Cheq/Gaston_Cheq.xlsx
+++ b/biology/Botanique/Gaston_Cheq/Gaston_Cheq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaston Cheq (né le 14 janvier 1866 à Bar-sur-Aube, où il est mort le 23 septembre 1937[2]) est le principal meneur de la révolte des vignerons de l'Aube en 1911.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaston Cheq (né le 14 janvier 1866 à Bar-sur-Aube, où il est mort le 23 septembre 1937) est le principal meneur de la révolte des vignerons de l'Aube en 1911.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agent d'assurances et membre du Parti socialiste, il conduisit des manifestations sur Troyes et Bar-sur-Aube afin que les vignobles aubois conservent l'appellation Champagne[1].
-La mobilisation des viticulteurs aubois pour récupérer leur appellation culmina le 9 avril 1911 à Troyes. Le comité d'organisation, conduit par Gaston Cheq, prit la tête du cortège, arborant des « insignes aux allures de médailles distribuées lors des comices agricoles », il était suivi par les femmes en tenue de travail, puis par les hommes en habits du dimanche[3].
-Les manifestants brandissaient des pancartes rappelant leurs villages d'origine, intitulant leur délégation « bataillon de fer » et agitant, face à la troupe à cheval, autant de drapeaux rouges que de tricolores[3]. 
-Les photographes prirent des clichés pour éditer des cartes postales généralement favorables aux manifestants. Beaucoup d'ailleurs prennent la pose en dépit du risque évident, puisque qualifiés de « mutins ». Cependant le gouvernement dut céder et abrogea le décret[3]. À Bar-sur-Aube, une statue a été élevée à la mémoire de Gaston Cheq qui atteste toujours de l'importance de cette révolte dans l’histoire régionale afin que les vignobles aubois conservent l'appellation Champagne[1],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agent d'assurances et membre du Parti socialiste, il conduisit des manifestations sur Troyes et Bar-sur-Aube afin que les vignobles aubois conservent l'appellation Champagne.
+La mobilisation des viticulteurs aubois pour récupérer leur appellation culmina le 9 avril 1911 à Troyes. Le comité d'organisation, conduit par Gaston Cheq, prit la tête du cortège, arborant des « insignes aux allures de médailles distribuées lors des comices agricoles », il était suivi par les femmes en tenue de travail, puis par les hommes en habits du dimanche.
+Les manifestants brandissaient des pancartes rappelant leurs villages d'origine, intitulant leur délégation « bataillon de fer » et agitant, face à la troupe à cheval, autant de drapeaux rouges que de tricolores. 
+Les photographes prirent des clichés pour éditer des cartes postales généralement favorables aux manifestants. Beaucoup d'ailleurs prennent la pose en dépit du risque évident, puisque qualifiés de « mutins ». Cependant le gouvernement dut céder et abrogea le décret. À Bar-sur-Aube, une statue a été élevée à la mémoire de Gaston Cheq qui atteste toujours de l'importance de cette révolte dans l’histoire régionale afin que les vignobles aubois conservent l'appellation Champagne,.
 </t>
         </is>
       </c>
